--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T13:30:27+00:00</t>
+    <t>2025-01-31T15:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:48:31+00:00</t>
+    <t>2025-01-31T16:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:36:09+00:00</t>
+    <t>2025-01-31T16:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:52:44+00:00</t>
+    <t>2025-02-03T13:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:34:22+00:00</t>
+    <t>2025-02-03T13:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:56:30+00:00</t>
+    <t>2025-02-03T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:39:55+00:00</t>
+    <t>2025-02-03T16:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:55:26+00:00</t>
+    <t>2025-02-04T08:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:34:23+00:00</t>
+    <t>2025-02-04T08:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:52:18+00:00</t>
+    <t>2025-02-04T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="399">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:36:46+00:00</t>
+    <t>2025-02-04T10:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>Slot.meta.profile:sas-cpts-slot-aggregator</t>
+  </si>
+  <si>
+    <t>sas-cpts-slot-aggregator</t>
   </si>
   <si>
     <t>Slot.meta.security</t>
@@ -1538,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM70"/>
+  <dimension ref="A1:AM71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1549,7 +1555,7 @@
   <cols>
     <col min="1" max="1" width="66.1640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.4453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.42578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2817,9 +2823,11 @@
         <v>141</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2828,7 +2836,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2840,16 +2848,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2860,7 +2868,7 @@
         <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>75</v>
@@ -2875,11 +2883,13 @@
         <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y12" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z12" t="s" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>75</v>
@@ -2897,7 +2907,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2923,10 +2933,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2949,16 +2959,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2984,13 +2994,11 @@
         <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>75</v>
@@ -3008,7 +3016,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3034,10 +3042,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3048,28 +3056,28 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3095,13 +3103,13 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -3119,13 +3127,13 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
@@ -3145,10 +3153,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3165,22 +3173,22 @@
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3206,13 +3214,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3230,7 +3238,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3256,14 +3264,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3282,16 +3290,16 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3317,13 +3325,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3341,7 +3349,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3356,7 +3364,7 @@
         <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -3367,21 +3375,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3393,16 +3401,16 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3452,22 +3460,22 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -3478,14 +3486,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3504,16 +3512,16 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3563,7 +3571,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3575,10 +3583,10 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3589,10 +3597,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3609,7 +3617,7 @@
         <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>75</v>
@@ -3618,17 +3626,15 @@
         <v>105</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="O19" t="s" s="2">
-        <v>193</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3676,7 +3682,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3691,7 +3697,7 @@
         <v>113</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3702,14 +3708,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3722,22 +3728,26 @@
         <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3785,7 +3795,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3797,24 +3807,24 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>199</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3825,7 +3835,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3834,16 +3844,16 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3894,47 +3904,47 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>75</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -3946,17 +3956,15 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -3993,31 +4001,31 @@
         <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>82</v>
@@ -4031,46 +4039,44 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
@@ -4094,44 +4100,46 @@
         <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -4142,10 +4150,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4162,25 +4170,25 @@
         <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4205,13 +4213,11 @@
         <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>75</v>
@@ -4229,7 +4235,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4244,7 +4250,7 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4255,10 +4261,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4281,19 +4287,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4306,7 +4312,7 @@
         <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>75</v>
@@ -4318,13 +4324,13 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
@@ -4342,7 +4348,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4357,7 +4363,7 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4368,10 +4374,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4394,18 +4400,20 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4417,7 +4425,7 @@
         <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>75</v>
@@ -4453,7 +4461,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4468,7 +4476,7 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4479,10 +4487,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4505,15 +4513,17 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>236</v>
+        <v>99</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4526,7 +4536,7 @@
         <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>75</v>
@@ -4562,7 +4572,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4577,7 +4587,7 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4588,10 +4598,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4614,17 +4624,15 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4673,7 +4681,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4688,7 +4696,7 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4699,10 +4707,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4725,15 +4733,17 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -4758,11 +4768,13 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
@@ -4786,7 +4798,7 @@
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
@@ -4795,21 +4807,21 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>252</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4820,7 +4832,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -4832,13 +4844,13 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4865,27 +4877,29 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4906,15 +4920,15 @@
         <v>75</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4925,7 +4939,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -4934,16 +4948,16 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4970,71 +4984,67 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>102</v>
+        <v>255</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>75</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -5046,17 +5056,15 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -5093,34 +5101,34 @@
         <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -5134,20 +5142,18 @@
         <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -5159,15 +5165,17 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>263</v>
+        <v>105</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5204,16 +5212,16 @@
         <v>75</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>112</v>
@@ -5225,13 +5233,13 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -5242,12 +5250,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5256,7 +5266,7 @@
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
@@ -5265,23 +5275,19 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>270</v>
-      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>271</v>
+        <v>112</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5338,13 +5344,13 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>272</v>
+        <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5355,10 +5361,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5369,7 +5375,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5381,19 +5387,19 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5442,22 +5448,22 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5468,14 +5474,12 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5484,7 +5488,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5496,16 +5500,20 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5529,11 +5537,13 @@
         <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>75</v>
@@ -5551,38 +5561,40 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>252</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C37" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="B37" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>75</v>
       </c>
@@ -5591,7 +5603,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5600,16 +5612,16 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5636,13 +5648,11 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5660,47 +5670,47 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>102</v>
+        <v>255</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>75</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -5712,17 +5722,15 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -5759,34 +5767,34 @@
         <v>75</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5797,23 +5805,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5825,15 +5831,17 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>263</v>
+        <v>105</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -5870,16 +5878,16 @@
         <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>112</v>
@@ -5891,13 +5899,13 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5908,12 +5916,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>75</v>
       </c>
@@ -5922,7 +5932,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -5931,23 +5941,19 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>270</v>
-      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
@@ -5995,7 +6001,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>271</v>
+        <v>112</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6004,13 +6010,13 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>272</v>
+        <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -6021,10 +6027,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6035,7 +6041,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -6044,19 +6050,23 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>100</v>
+        <v>269</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
       </c>
@@ -6104,22 +6114,22 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>102</v>
+        <v>273</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -6137,14 +6147,14 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -6156,17 +6166,15 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6203,34 +6211,34 @@
         <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -6248,14 +6256,14 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -6264,23 +6272,21 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>293</v>
+        <v>106</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>294</v>
+        <v>107</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6289,7 +6295,7 @@
         <v>75</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>297</v>
+        <v>75</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>75</v>
@@ -6316,34 +6322,34 @@
         <v>75</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>112</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6354,10 +6360,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6380,18 +6386,20 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6400,7 +6408,7 @@
         <v>75</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>75</v>
@@ -6439,7 +6447,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6448,13 +6456,13 @@
         <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6465,10 +6473,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6491,20 +6499,18 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6552,7 +6558,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6561,13 +6567,13 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6578,10 +6584,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6604,19 +6610,19 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -6665,7 +6671,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6674,13 +6680,13 @@
         <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6691,10 +6697,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6717,19 +6723,19 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>324</v>
+        <v>99</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>75</v>
@@ -6778,7 +6784,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6787,13 +6793,13 @@
         <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6804,10 +6810,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6830,19 +6836,19 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>99</v>
+        <v>326</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>75</v>
@@ -6891,7 +6897,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6900,13 +6906,13 @@
         <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -6917,14 +6923,12 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>75</v>
       </c>
@@ -6933,7 +6937,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -6945,16 +6949,20 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>75</v>
       </c>
@@ -6978,11 +6986,13 @@
         <v>75</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>334</v>
+        <v>75</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>75</v>
@@ -7000,38 +7010,40 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>252</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C50" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="B50" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>75</v>
       </c>
@@ -7040,7 +7052,7 @@
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
@@ -7049,16 +7061,16 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7085,13 +7097,11 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>75</v>
+        <v>336</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>75</v>
@@ -7109,36 +7119,36 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>102</v>
+        <v>255</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>75</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7146,10 +7156,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>75</v>
@@ -7161,13 +7171,13 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>264</v>
+        <v>100</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>337</v>
+        <v>101</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7206,34 +7216,34 @@
         <v>75</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>75</v>
@@ -7247,11 +7257,9 @@
         <v>338</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>75</v>
       </c>
@@ -7260,7 +7268,7 @@
         <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
@@ -7272,13 +7280,13 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>263</v>
+        <v>105</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7317,16 +7325,16 @@
         <v>75</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>112</v>
@@ -7338,7 +7346,7 @@
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>113</v>
@@ -7355,18 +7363,20 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>85</v>
@@ -7381,13 +7391,13 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>100</v>
+        <v>266</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7438,22 +7448,22 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>75</v>
@@ -7478,7 +7488,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -7490,13 +7500,13 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>264</v>
+        <v>100</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>337</v>
+        <v>101</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7535,34 +7545,34 @@
         <v>75</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>75</v>
@@ -7584,10 +7594,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -7599,24 +7609,22 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>345</v>
+        <v>266</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>348</v>
+        <v>75</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>75</v>
@@ -7646,34 +7654,34 @@
         <v>75</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>349</v>
+        <v>112</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
@@ -7684,10 +7692,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7695,7 +7703,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>85</v>
@@ -7710,22 +7718,24 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>352</v>
+        <v>126</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>75</v>
@@ -7767,22 +7777,22 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>75</v>
@@ -7793,10 +7803,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7807,7 +7817,7 @@
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>75</v>
@@ -7816,23 +7826,19 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>142</v>
+        <v>354</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>267</v>
+        <v>355</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>75</v>
       </c>
@@ -7880,22 +7886,22 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -7906,10 +7912,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7920,7 +7926,7 @@
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>75</v>
@@ -7932,19 +7938,19 @@
         <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>75</v>
@@ -7993,22 +7999,22 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>75</v>
@@ -8019,10 +8025,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>358</v>
+        <v>275</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8033,7 +8039,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>75</v>
@@ -8045,16 +8051,20 @@
         <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>359</v>
+        <v>276</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>75</v>
       </c>
@@ -8078,11 +8088,13 @@
         <v>75</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>361</v>
+        <v>75</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>75</v>
@@ -8100,36 +8112,36 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>358</v>
+        <v>280</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>252</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8140,7 +8152,7 @@
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>75</v>
@@ -8152,13 +8164,13 @@
         <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8185,11 +8197,11 @@
         <v>75</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>75</v>
@@ -8207,13 +8219,13 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>75</v>
@@ -8228,15 +8240,15 @@
         <v>75</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8256,16 +8268,16 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>101</v>
+        <v>366</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8292,13 +8304,11 @@
         <v>75</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>75</v>
+        <v>367</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>75</v>
@@ -8316,7 +8326,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>102</v>
+        <v>364</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8328,35 +8338,35 @@
         <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>75</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
@@ -8368,17 +8378,15 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -8415,34 +8423,34 @@
         <v>75</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>75</v>
@@ -8453,14 +8461,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8476,23 +8484,21 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>267</v>
+        <v>106</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>75</v>
       </c>
@@ -8516,29 +8522,31 @@
         <v>75</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y63" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z63" t="s" s="2">
-        <v>369</v>
+        <v>75</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>271</v>
+        <v>112</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8547,13 +8555,13 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -8578,7 +8586,7 @@
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
@@ -8590,19 +8598,19 @@
         <v>86</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -8627,13 +8635,11 @@
         <v>75</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>75</v>
+        <v>371</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>75</v>
@@ -8651,22 +8657,22 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -8677,10 +8683,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8688,7 +8694,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>85</v>
@@ -8703,16 +8709,20 @@
         <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>372</v>
+        <v>99</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>373</v>
+        <v>276</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>75</v>
       </c>
@@ -8760,22 +8770,22 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>371</v>
+        <v>280</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>75</v>
@@ -8786,10 +8796,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8812,13 +8822,13 @@
         <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>163</v>
+        <v>374</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8830,7 +8840,7 @@
         <v>75</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>378</v>
+        <v>75</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>75</v>
@@ -8845,11 +8855,13 @@
         <v>75</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Y66" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z66" t="s" s="2">
-        <v>379</v>
+        <v>75</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>75</v>
@@ -8867,7 +8879,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>85</v>
@@ -8885,7 +8897,7 @@
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>75</v>
@@ -8893,10 +8905,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8919,13 +8931,13 @@
         <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8937,7 +8949,7 @@
         <v>75</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>75</v>
@@ -8952,13 +8964,11 @@
         <v>75</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>75</v>
+        <v>381</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>75</v>
@@ -8976,7 +8986,7 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>85</v>
@@ -8994,18 +9004,18 @@
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>385</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9031,10 +9041,10 @@
         <v>120</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9085,7 +9095,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>85</v>
@@ -9103,18 +9113,18 @@
         <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9122,7 +9132,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>85</v>
@@ -9134,25 +9144,23 @@
         <v>75</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>324</v>
+        <v>120</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q69" t="s" s="2">
-        <v>393</v>
-      </c>
+      <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
         <v>75</v>
       </c>
@@ -9196,10 +9204,10 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>85</v>
@@ -9214,18 +9222,18 @@
         <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>75</v>
+        <v>391</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>75</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9248,20 +9256,22 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>99</v>
+        <v>326</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="R70" t="s" s="2">
         <v>75</v>
       </c>
@@ -9305,7 +9315,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9326,6 +9336,115 @@
         <v>75</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:02:41+00:00</t>
+    <t>2025-02-04T10:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:20:10+00:00</t>
+    <t>2025-02-04T12:30:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:30:23+00:00</t>
+    <t>2025-02-04T12:59:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de Slot, dérivé de FrSlot, pour le cas d'usage agrégateur de la plateforme SAS - cas d'usage CPTS</t>
+    <t>Profil de Slot, dérivé de FrSlot, pour le cas d'usage agrégateur de la plateforme SAS [cas d'usage CPTS]</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:59:01+00:00</t>
+    <t>2025-02-04T15:23:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T15:23:22+00:00</t>
+    <t>2025-02-04T16:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:00:41+00:00</t>
+    <t>2025-02-05T17:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T17:09:50+00:00</t>
+    <t>2025-02-06T08:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T08:29:34+00:00</t>
+    <t>2025-02-06T09:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:04:57+00:00</t>
+    <t>2025-02-06T09:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:17:57+00:00</t>
+    <t>2025-02-06T09:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:34:11+00:00</t>
+    <t>2025-02-06T09:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:41:46+00:00</t>
+    <t>2025-02-06T10:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T10:00:10+00:00</t>
+    <t>2025-02-06T13:19:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:19:14+00:00</t>
+    <t>2025-02-06T13:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="407">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:39:47+00:00</t>
+    <t>2025-02-06T14:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1124,6 +1124,30 @@
   </si>
   <si>
     <t>Slot.serviceType:referencecpts.text</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:motifConsultation</t>
+  </si>
+  <si>
+    <t>motifConsultation</t>
+  </si>
+  <si>
+    <t>Slicing type de consultation pour motif en texte libre</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:motifConsultation.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:motifConsultation.extension</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:motifConsultation.extension:sas-servicetype-r5</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:motifConsultation.coding</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:motifConsultation.text</t>
   </si>
   <si>
     <t>Slot.specialty</t>
@@ -1544,7 +1568,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM71"/>
+  <dimension ref="A1:AM77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8141,9 +8165,11 @@
         <v>360</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>75</v>
       </c>
@@ -8167,10 +8193,10 @@
         <v>213</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>362</v>
+        <v>257</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8197,11 +8223,11 @@
         <v>75</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>363</v>
+        <v>258</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>75</v>
@@ -8219,7 +8245,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>360</v>
+        <v>255</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8245,10 +8271,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>364</v>
+        <v>260</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8268,16 +8294,16 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>365</v>
+        <v>100</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>366</v>
+        <v>101</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8304,11 +8330,13 @@
         <v>75</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y61" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z61" t="s" s="2">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>75</v>
@@ -8326,7 +8354,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>364</v>
+        <v>102</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8338,35 +8366,35 @@
         <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>254</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>368</v>
+        <v>261</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
@@ -8378,15 +8406,17 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -8423,34 +8453,34 @@
         <v>75</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>75</v>
@@ -8461,21 +8491,23 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="D63" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
@@ -8487,17 +8519,15 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -8534,16 +8564,16 @@
         <v>75</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>112</v>
@@ -8561,7 +8591,7 @@
         <v>113</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -8572,10 +8602,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>370</v>
+        <v>268</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8586,7 +8616,7 @@
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
@@ -8635,11 +8665,13 @@
         <v>75</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y64" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z64" t="s" s="2">
-        <v>371</v>
+        <v>75</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>75</v>
@@ -8683,10 +8715,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>372</v>
+        <v>275</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8694,7 +8726,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>85</v>
@@ -8796,10 +8828,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8807,10 +8839,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
@@ -8822,13 +8854,13 @@
         <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>374</v>
+        <v>213</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8855,13 +8887,11 @@
         <v>75</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>75</v>
+        <v>371</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>75</v>
@@ -8879,13 +8909,13 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>75</v>
@@ -8900,15 +8930,15 @@
         <v>75</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>75</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8916,7 +8946,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>85</v>
@@ -8931,13 +8961,13 @@
         <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8949,7 +8979,7 @@
         <v>75</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>75</v>
@@ -8964,11 +8994,11 @@
         <v>75</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>75</v>
@@ -8986,10 +9016,10 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>85</v>
@@ -9004,18 +9034,18 @@
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>382</v>
+        <v>75</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>75</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9023,7 +9053,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>85</v>
@@ -9035,16 +9065,16 @@
         <v>75</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>384</v>
+        <v>100</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>385</v>
+        <v>101</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9095,10 +9125,10 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>383</v>
+        <v>102</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>85</v>
@@ -9107,35 +9137,35 @@
         <v>75</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>386</v>
+        <v>75</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>387</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>75</v>
@@ -9144,18 +9174,20 @@
         <v>75</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>389</v>
+        <v>106</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>75</v>
@@ -9192,48 +9224,48 @@
         <v>75</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>388</v>
+        <v>112</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>391</v>
+        <v>75</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>387</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9244,7 +9276,7 @@
         <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>75</v>
@@ -9253,25 +9285,27 @@
         <v>75</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>326</v>
+        <v>144</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>393</v>
+        <v>269</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q70" t="s" s="2">
-        <v>395</v>
-      </c>
+      <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
         <v>75</v>
       </c>
@@ -9291,13 +9325,11 @@
         <v>75</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>75</v>
+        <v>379</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>75</v>
@@ -9315,22 +9347,22 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>392</v>
+        <v>273</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>75</v>
@@ -9341,10 +9373,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9364,19 +9396,23 @@
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>397</v>
+        <v>276</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>75</v>
       </c>
@@ -9424,7 +9460,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>396</v>
+        <v>280</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9433,18 +9469,672 @@
         <v>85</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="Y73" s="2"/>
+      <c r="Z73" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q76" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="407">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:18:01+00:00</t>
+    <t>2025-02-06T14:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -818,7 +818,7 @@
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">pattern:coding}
 </t>
   </si>
   <si>
@@ -896,19 +896,19 @@
     <t>TypeConsultation</t>
   </si>
   <si>
+    <t>Slot.serviceType:TypeConsultation.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:TypeConsultation.extension</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:TypeConsultation.extension:sas-servicetype-r5</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:TypeConsultation.coding</t>
+  </si>
+  <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:TypeConsultation.id</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:TypeConsultation.extension</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:TypeConsultation.extension:sas-servicetype-r5</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:TypeConsultation.coding</t>
   </si>
   <si>
     <t>Slot.serviceType:TypeConsultation.coding.id</t>
@@ -1053,9 +1053,6 @@
     <t>referencecpts</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-valueset-categorieetablissement</t>
-  </si>
-  <si>
     <t>Slot.serviceType:referencecpts.id</t>
   </si>
   <si>
@@ -1121,6 +1118,9 @@
   </si>
   <si>
     <t>Slot.serviceType:referencecpts.coding</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/sas/ValueSet/sas-valueset-categorieetablissement</t>
   </si>
   <si>
     <t>Slot.serviceType:referencecpts.text</t>
@@ -5672,11 +5672,11 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>260</v>
@@ -5829,7 +5829,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>261</v>
@@ -5940,7 +5940,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>261</v>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>268</v>
@@ -6114,13 +6114,11 @@
         <v>75</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>75</v>
+        <v>288</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>75</v>
@@ -7121,11 +7119,11 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>336</v>
+        <v>258</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>75</v>
@@ -7169,7 +7167,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>260</v>
@@ -7278,7 +7276,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>261</v>
@@ -7310,7 +7308,7 @@
         <v>266</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7387,7 +7385,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>261</v>
@@ -7498,10 +7496,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7607,10 +7605,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7639,7 +7637,7 @@
         <v>266</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7716,10 +7714,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7745,13 +7743,13 @@
         <v>126</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7759,49 +7757,49 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>85</v>
@@ -7827,10 +7825,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7853,13 +7851,13 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7910,7 +7908,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -7936,7 +7934,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>268</v>
@@ -7999,13 +7997,11 @@
         <v>75</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>75</v>
+        <v>358</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>75</v>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:37:01+00:00</t>
+    <t>2025-02-10T09:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:11:56+00:00</t>
+    <t>2025-02-10T10:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T10:48:04+00:00</t>
+    <t>2025-03-12T10:37:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1059,22 +1059,22 @@
     <t>Slot.serviceType:referencecpts.extension</t>
   </si>
   <si>
+    <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.extension.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5.extension</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.extension.extension</t>
+  </si>
+  <si>
     <t>An Extension</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5.id</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.extension.id</t>
-  </si>
-  <si>
-    <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5.extension</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.extension.extension</t>
   </si>
   <si>
     <t>Slot.serviceType:referencecpts.extension:sas-servicetype-r5.url</t>
@@ -7290,7 +7290,7 @@
         <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
@@ -7302,13 +7302,13 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>266</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>338</v>
+        <v>267</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>261</v>
@@ -7496,10 +7496,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7605,10 +7605,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7637,7 +7637,7 @@
         <v>266</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T10:37:36+00:00</t>
+    <t>2025-03-12T11:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:02:50+00:00</t>
+    <t>2025-03-13T08:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
